--- a/data/CopyOfData/api1975Fiberpulp.xlsx
+++ b/data/CopyOfData/api1975Fiberpulp.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Desktop/woodcarb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="26280" windowHeight="12720" tabRatio="500"/>
+    <workbookView xWindow="5840" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -113,7 +108,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +143,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -333,1344 +328,1349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:I75"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>1342365.5579365452</v>
       </c>
+      <c r="B1">
+        <v>580766.49090550176</v>
+      </c>
       <c r="C1">
-        <v>580766.49090550176</v>
+        <v>139103.78638295454</v>
       </c>
       <c r="E1">
-        <v>139103.78638295454</v>
-      </c>
-      <c r="G1">
         <v>165004.7593293415</v>
       </c>
-      <c r="I1">
+      <c r="F1">
         <v>2227240.5945543428</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1511174.2472328283</v>
       </c>
+      <c r="B2">
+        <v>653800.5683498471</v>
+      </c>
       <c r="C2">
-        <v>653800.5683498471</v>
+        <v>156596.73211343991</v>
       </c>
       <c r="E2">
-        <v>156596.73211343991</v>
-      </c>
-      <c r="G2">
         <v>185754.87243031507</v>
       </c>
-      <c r="I2">
+      <c r="F2">
         <v>2507326.4201264307</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1679982.9365291111</v>
       </c>
+      <c r="B3">
+        <v>726834.64579419221</v>
+      </c>
       <c r="C3">
-        <v>726834.64579419221</v>
+        <v>174089.67784392528</v>
       </c>
       <c r="E3">
-        <v>174089.67784392528</v>
-      </c>
-      <c r="G3">
         <v>206504.98553128858</v>
       </c>
-      <c r="I3">
+      <c r="F3">
         <v>2787412.2456985172</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1848791.6258253942</v>
       </c>
+      <c r="B4">
+        <v>799868.72323853755</v>
+      </c>
       <c r="C4">
-        <v>799868.72323853755</v>
+        <v>191582.62357441065</v>
       </c>
       <c r="E4">
-        <v>191582.62357441065</v>
-      </c>
-      <c r="G4">
         <v>227255.09863226212</v>
       </c>
-      <c r="I4">
+      <c r="F4">
         <v>3067498.0712706046</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2018764</v>
       </c>
+      <c r="B5">
+        <v>873406.26203832927</v>
+      </c>
       <c r="C5">
-        <v>873406.26203832927</v>
+        <v>209196.15715205451</v>
       </c>
       <c r="E5">
-        <v>209196.15715205451</v>
-      </c>
-      <c r="G5">
         <v>248148.25290569989</v>
       </c>
-      <c r="I5">
+      <c r="F5">
         <v>3349514.6720960834</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2238880.1704651453</v>
       </c>
+      <c r="B6">
+        <v>968638.21667005157</v>
+      </c>
       <c r="C6">
-        <v>968638.21667005157</v>
+        <v>232005.88478160158</v>
       </c>
       <c r="E6">
-        <v>232005.88478160158</v>
-      </c>
-      <c r="G6">
         <v>275205.12688265758</v>
       </c>
-      <c r="I6">
+      <c r="F6">
         <v>3714729.3987994557</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2470307.9345924538</v>
       </c>
+      <c r="B7">
+        <v>1068764.0651586915</v>
+      </c>
       <c r="C7">
-        <v>1068764.0651586915</v>
+        <v>255987.78604084984</v>
       </c>
       <c r="E7">
-        <v>255987.78604084984</v>
-      </c>
-      <c r="G7">
         <v>303652.43193766352</v>
       </c>
-      <c r="I7">
+      <c r="F7">
         <v>4098712.2177296584</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>2768439.5141784395</v>
       </c>
+      <c r="B8">
+        <v>1197748.9234788213</v>
+      </c>
       <c r="C8">
-        <v>1197748.9234788213</v>
+        <v>286881.92759234377</v>
       </c>
       <c r="E8">
-        <v>286881.92759234377</v>
-      </c>
-      <c r="G8">
         <v>340299.02887038025</v>
       </c>
-      <c r="I8">
+      <c r="F8">
         <v>4593369.3941199854</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>2305016.0734257414</v>
       </c>
+      <c r="B9">
+        <v>997251.5225301442</v>
+      </c>
       <c r="C9">
-        <v>997251.5225301442</v>
+        <v>238859.27465240267</v>
       </c>
       <c r="E9">
-        <v>238859.27465240267</v>
-      </c>
-      <c r="G9">
         <v>283334.61045479024</v>
       </c>
-      <c r="I9">
+      <c r="F9">
         <v>3824461.4810630786</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>2826591</v>
       </c>
+      <c r="B10">
+        <v>1222907.8186559614</v>
+      </c>
       <c r="C10">
-        <v>1222907.8186559614</v>
+        <v>292907.92536452151</v>
       </c>
       <c r="E10">
-        <v>292907.92536452151</v>
-      </c>
-      <c r="G10">
         <v>347447.06083968963</v>
       </c>
-      <c r="I10">
+      <c r="F10">
         <v>4689853.8048601719</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2988220.6548673185</v>
       </c>
+      <c r="B11">
+        <v>1292835.9294664424</v>
+      </c>
       <c r="C11">
-        <v>1292835.9294664424</v>
+        <v>309656.93747294822</v>
       </c>
       <c r="E11">
-        <v>309656.93747294822</v>
-      </c>
-      <c r="G11">
         <v>367314.72069149814</v>
       </c>
-      <c r="I11">
+      <c r="F11">
         <v>4958028.2424982069</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3191883.2192936717</v>
       </c>
+      <c r="B12">
+        <v>1380949.3291073919</v>
+      </c>
       <c r="C12">
-        <v>1380949.3291073919</v>
+        <v>330761.64601427637</v>
       </c>
       <c r="E12">
-        <v>330761.64601427637</v>
-      </c>
-      <c r="G12">
         <v>392349.10289005825</v>
       </c>
-      <c r="I12">
+      <c r="F12">
         <v>5295943.2973053977</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>3232952.4877639324</v>
       </c>
+      <c r="B13">
+        <v>1398717.7043405834</v>
+      </c>
       <c r="C13">
-        <v>1398717.7043405834</v>
+        <v>335017.48430989916</v>
       </c>
       <c r="E13">
-        <v>335017.48430989916</v>
-      </c>
-      <c r="G13">
         <v>397397.37362354191</v>
       </c>
-      <c r="I13">
+      <c r="F13">
         <v>5364085.0500379568</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>3297087.8057207139</v>
       </c>
+      <c r="B14">
+        <v>1426465.4689734343</v>
+      </c>
       <c r="C14">
-        <v>1426465.4689734343</v>
+        <v>341663.56183767546</v>
       </c>
       <c r="E14">
-        <v>341663.56183767546</v>
-      </c>
-      <c r="G14">
         <v>405280.94352102716</v>
       </c>
-      <c r="I14">
+      <c r="F14">
         <v>5470497.780052851</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>3490123</v>
       </c>
+      <c r="B15">
+        <v>1509981</v>
+      </c>
       <c r="C15">
-        <v>1509981</v>
+        <v>361667</v>
       </c>
       <c r="E15">
-        <v>361667</v>
-      </c>
-      <c r="G15">
         <v>429009</v>
       </c>
-      <c r="I15">
+      <c r="F15">
         <v>5790780</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>3635075.2628333997</v>
       </c>
+      <c r="B16">
+        <v>1624822.2995868856</v>
+      </c>
       <c r="C16">
-        <v>1624822.2995868856</v>
+        <v>313975.54462903616</v>
       </c>
       <c r="E16">
-        <v>313975.54462903616</v>
-      </c>
-      <c r="G16">
         <v>436105.27965457289</v>
       </c>
-      <c r="I16">
+      <c r="F16">
         <v>6009978.3867038945</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>3994045.4575589844</v>
       </c>
+      <c r="B17">
+        <v>1785276.4126669394</v>
+      </c>
       <c r="C17">
-        <v>1785276.4126669394</v>
+        <v>344981.19217282464</v>
       </c>
       <c r="E17">
-        <v>344981.19217282464</v>
-      </c>
-      <c r="G17">
         <v>479171.45733707678</v>
       </c>
-      <c r="I17">
+      <c r="F17">
         <v>6603474.5197358252</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>4062451.8350945874</v>
       </c>
+      <c r="B18">
+        <v>1815853.0031409345</v>
+      </c>
       <c r="C18">
-        <v>1815853.0031409345</v>
+        <v>350889.71623075544</v>
       </c>
       <c r="E18">
-        <v>350889.71623075544</v>
-      </c>
-      <c r="G18">
         <v>487378.27019466454</v>
       </c>
-      <c r="I18">
+      <c r="F18">
         <v>6716572.824660942</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>3789388.4054982257</v>
       </c>
+      <c r="B19">
+        <v>1693797.8825369086</v>
+      </c>
       <c r="C19">
-        <v>1693797.8825369086</v>
+        <v>327304.16907513404</v>
       </c>
       <c r="E19">
-        <v>327304.16907513404</v>
-      </c>
-      <c r="G19">
         <v>454618.4523870034</v>
       </c>
-      <c r="I19">
+      <c r="F19">
         <v>6265108.9094972713</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>4019696</v>
       </c>
+      <c r="B20">
+        <v>1854386</v>
+      </c>
       <c r="C20">
-        <v>1854386</v>
+        <v>277849</v>
       </c>
       <c r="E20">
-        <v>277849</v>
-      </c>
-      <c r="G20">
         <v>470393</v>
       </c>
-      <c r="I20">
+      <c r="F20">
         <v>6622324</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>4501782.4832104165</v>
       </c>
+      <c r="B21">
+        <v>2413389.292435294</v>
+      </c>
       <c r="C21">
-        <v>2413389.292435294</v>
+        <v>420218.4540705058</v>
       </c>
       <c r="E21">
-        <v>420218.4540705058</v>
-      </c>
-      <c r="G21">
         <v>515381.78590414696</v>
       </c>
-      <c r="I21">
+      <c r="F21">
         <v>7850772.0156203629</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>3397610.6458063144</v>
       </c>
+      <c r="B22">
+        <v>1821446.7675936045</v>
+      </c>
       <c r="C22">
-        <v>1821446.7675936045</v>
+        <v>317149.63982356602</v>
       </c>
       <c r="E22">
-        <v>317149.63982356602</v>
-      </c>
-      <c r="G22">
         <v>388971.8459239814</v>
       </c>
-      <c r="I22">
+      <c r="F22">
         <v>5925178.8991474668</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>4559366.7158628488</v>
       </c>
+      <c r="B23">
+        <v>2444259.9911007201</v>
+      </c>
       <c r="C23">
-        <v>2444259.9911007201</v>
+        <v>425593.64874379104</v>
       </c>
       <c r="E23">
-        <v>425593.64874379104</v>
-      </c>
-      <c r="G23">
         <v>521974.2556147594</v>
       </c>
-      <c r="I23">
+      <c r="F23">
         <v>7951194.6113221198</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>4935781.3730172254</v>
       </c>
+      <c r="B24">
+        <v>2646054.5261499193</v>
+      </c>
       <c r="C24">
-        <v>2646054.5261499193</v>
+        <v>460730.03880901897</v>
       </c>
       <c r="E24">
-        <v>460730.03880901897</v>
-      </c>
-      <c r="G24">
         <v>565067.68782038917</v>
       </c>
-      <c r="I24">
+      <c r="F24">
         <v>8607633.6257965527</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>4998206.711313081</v>
       </c>
+      <c r="B25">
+        <v>2679520.5240255939</v>
+      </c>
       <c r="C25">
-        <v>2679520.5240255939</v>
+        <v>466557.12602421583</v>
       </c>
       <c r="E25">
-        <v>466557.12602421583</v>
-      </c>
-      <c r="G25">
         <v>572214.38636848179</v>
       </c>
-      <c r="I25">
+      <c r="F25">
         <v>8716498.7477313727</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>5356693.9394302983</v>
       </c>
+      <c r="B26">
+        <v>2871704.2292667036</v>
+      </c>
       <c r="C26">
-        <v>2871704.2292667036</v>
+        <v>500020.08194562409</v>
       </c>
       <c r="E26">
-        <v>500020.08194562409</v>
-      </c>
-      <c r="G26">
         <v>613255.41590288084</v>
       </c>
-      <c r="I26">
+      <c r="F26">
         <v>9341673.6665455066</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>5839963.7810697844</v>
       </c>
+      <c r="B27">
+        <v>3130783.4418940279</v>
+      </c>
       <c r="C27">
-        <v>3130783.4418940279</v>
+        <v>545130.85895673779</v>
       </c>
       <c r="E27">
-        <v>545130.85895673779</v>
-      </c>
-      <c r="G27">
         <v>668582.05040525482</v>
       </c>
-      <c r="I27">
+      <c r="F27">
         <v>10184460.132325804</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>5710745.564416402</v>
       </c>
+      <c r="B28">
+        <v>3061510.0237264624</v>
+      </c>
       <c r="C28">
-        <v>3061510.0237264624</v>
+        <v>533068.99691823521</v>
       </c>
       <c r="E28">
-        <v>533068.99691823521</v>
-      </c>
-      <c r="G28">
         <v>653788.64012420631</v>
       </c>
-      <c r="I28">
+      <c r="F28">
         <v>9959113.2251853049</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>5974479.4135222863</v>
       </c>
+      <c r="B29">
+        <v>3202896.7854944314</v>
+      </c>
       <c r="C29">
-        <v>3202896.7854944314</v>
+        <v>557687.20776486502</v>
       </c>
       <c r="E29">
-        <v>557687.20776486502</v>
-      </c>
-      <c r="G29">
         <v>683981.92970727663</v>
       </c>
-      <c r="I29">
+      <c r="F29">
         <v>10419045.336488862</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>6289318</v>
       </c>
+      <c r="B30">
+        <v>3841942</v>
+      </c>
       <c r="C30">
-        <v>3841942</v>
+        <v>739422</v>
       </c>
       <c r="E30">
-        <v>739422</v>
-      </c>
-      <c r="G30">
         <v>704063</v>
       </c>
-      <c r="I30">
+      <c r="F30">
         <v>11574745</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>6102875.9354953906</v>
       </c>
+      <c r="B31">
+        <v>3563248.4297564705</v>
+      </c>
       <c r="C31">
-        <v>3563248.4297564705</v>
+        <v>596336.64140720887</v>
       </c>
       <c r="E31">
-        <v>596336.64140720887</v>
-      </c>
-      <c r="G31">
         <v>562968.13770387834</v>
       </c>
-      <c r="I31">
+      <c r="F31">
         <v>10825429.144362949</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>5665400.1415715953</v>
       </c>
+      <c r="B32">
+        <v>3307822.1434888807</v>
+      </c>
       <c r="C32">
-        <v>3307822.1434888807</v>
+        <v>553589.11574834224</v>
       </c>
       <c r="E32">
-        <v>553589.11574834224</v>
-      </c>
-      <c r="G32">
         <v>522612.58474836627</v>
       </c>
-      <c r="I32">
+      <c r="F32">
         <v>10049423.985557185</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>4943678.6283624573</v>
       </c>
+      <c r="B33">
+        <v>2886435.066994891</v>
+      </c>
       <c r="C33">
-        <v>2886435.066994891</v>
+        <v>483066.79352395487</v>
       </c>
       <c r="E33">
-        <v>483066.79352395487</v>
-      </c>
-      <c r="G33">
         <v>456036.39664842049</v>
       </c>
-      <c r="I33">
+      <c r="F33">
         <v>8769216.8855297249</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>5842554.0342163844</v>
       </c>
+      <c r="B34">
+        <v>3411255.8911946747</v>
+      </c>
       <c r="C34">
-        <v>3411255.8911946747</v>
+        <v>570899.53766558401</v>
       </c>
       <c r="E34">
-        <v>570899.53766558401</v>
-      </c>
-      <c r="G34">
         <v>538954.38787255739</v>
       </c>
-      <c r="I34">
+      <c r="F34">
         <v>10363663.8509492</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>5805036.0129722813</v>
       </c>
+      <c r="B35">
+        <v>3389350.4761577938</v>
+      </c>
       <c r="C35">
-        <v>3389350.4761577938</v>
+        <v>567233.50037145766</v>
       </c>
       <c r="E35">
-        <v>567233.50037145766</v>
-      </c>
-      <c r="G35">
         <v>535493.4866886941</v>
       </c>
-      <c r="I35">
+      <c r="F35">
         <v>10297113.476190228</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>6442178</v>
       </c>
+      <c r="B36">
+        <v>3587390</v>
+      </c>
       <c r="C36">
-        <v>3587390</v>
+        <v>501589</v>
       </c>
       <c r="E36">
-        <v>501589</v>
-      </c>
-      <c r="G36">
         <v>467360</v>
       </c>
-      <c r="I36">
+      <c r="F36">
         <v>10998517</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>7536117.4070966374</v>
       </c>
+      <c r="B37">
+        <v>4000188.9042649055</v>
+      </c>
       <c r="C37">
-        <v>4000188.9042649055</v>
+        <v>497363.91619304696</v>
       </c>
       <c r="E37">
-        <v>497363.91619304696</v>
-      </c>
-      <c r="G37">
         <v>574928.1201720332</v>
       </c>
-      <c r="I37">
+      <c r="F37">
         <v>12608598.347726624</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>8374806.147479929</v>
       </c>
+      <c r="B38">
+        <v>4445366.8668924365</v>
+      </c>
       <c r="C38">
-        <v>4445366.8668924365</v>
+        <v>552715.16589508054</v>
       </c>
       <c r="E38">
-        <v>552715.16589508054</v>
-      </c>
-      <c r="G38">
         <v>638911.43079083413</v>
       </c>
-      <c r="I38">
+      <c r="F38">
         <v>14011799.61105828</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>7268970.613881778</v>
       </c>
+      <c r="B39">
+        <v>3858386.7559833894</v>
+      </c>
       <c r="C39">
-        <v>3858386.7559833894</v>
+        <v>479732.93088665616</v>
       </c>
       <c r="E39">
-        <v>479732.93088665616</v>
-      </c>
-      <c r="G39">
         <v>554547.57202818757</v>
       </c>
-      <c r="I39">
+      <c r="F39">
         <v>12161637.872780012</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>8650423</v>
       </c>
+      <c r="B40">
+        <v>4366257</v>
+      </c>
       <c r="C40">
-        <v>4366257</v>
+        <v>468287</v>
       </c>
       <c r="E40">
-        <v>468287</v>
-      </c>
-      <c r="G40">
         <v>692315</v>
       </c>
-      <c r="I40">
+      <c r="F40">
         <v>14177282</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>9781739</v>
       </c>
+      <c r="B41">
+        <v>4667502</v>
+      </c>
       <c r="C41">
-        <v>4667502</v>
+        <v>402600</v>
       </c>
       <c r="E41">
-        <v>402600</v>
-      </c>
-      <c r="G41">
         <v>640967</v>
       </c>
-      <c r="I41">
+      <c r="F41">
         <v>15492808</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>11363600</v>
       </c>
+      <c r="B42">
+        <v>6075129</v>
+      </c>
       <c r="C42">
-        <v>6075129</v>
+        <v>529976</v>
       </c>
       <c r="E42">
-        <v>529976</v>
-      </c>
-      <c r="G42">
         <v>887581</v>
       </c>
-      <c r="I42">
+      <c r="F42">
         <v>18856286</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>11038020</v>
       </c>
+      <c r="B43">
+        <v>5494959</v>
+      </c>
       <c r="C43">
-        <v>5494959</v>
+        <v>480614</v>
       </c>
       <c r="E43">
-        <v>480614</v>
-      </c>
-      <c r="G43">
         <v>844337</v>
       </c>
-      <c r="I43">
+      <c r="F43">
         <v>17857930</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>10635320</v>
       </c>
+      <c r="B44">
+        <v>6367854</v>
+      </c>
       <c r="C44">
-        <v>6367854</v>
+        <v>425910</v>
       </c>
       <c r="E44">
-        <v>425910</v>
-      </c>
-      <c r="G44">
         <v>770358</v>
       </c>
-      <c r="I44">
+      <c r="F44">
         <v>18199442</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>10502204</v>
       </c>
+      <c r="B45">
+        <v>6859332</v>
+      </c>
       <c r="C45">
-        <v>6859332</v>
+        <v>427837</v>
       </c>
       <c r="E45">
-        <v>427837</v>
-      </c>
-      <c r="G45">
         <v>957389</v>
       </c>
-      <c r="I45">
+      <c r="F45">
         <v>18746762</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>10825412</v>
       </c>
+      <c r="B46">
+        <v>6799683</v>
+      </c>
       <c r="C46">
-        <v>6799683</v>
+        <v>414083</v>
       </c>
       <c r="E46">
-        <v>414083</v>
-      </c>
-      <c r="G46">
         <v>929453</v>
       </c>
-      <c r="I46">
+      <c r="F46">
         <v>18968631</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>12092093</v>
       </c>
+      <c r="B47">
+        <v>7278097</v>
+      </c>
       <c r="C47">
-        <v>7278097</v>
+        <v>402506</v>
       </c>
       <c r="E47">
-        <v>402506</v>
-      </c>
-      <c r="G47">
         <v>979755</v>
       </c>
-      <c r="I47">
+      <c r="F47">
         <v>20752451</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>13252924</v>
       </c>
+      <c r="B48">
+        <v>8009052</v>
+      </c>
       <c r="C48">
-        <v>8009052</v>
+        <v>462388</v>
       </c>
       <c r="E48">
-        <v>462388</v>
-      </c>
-      <c r="G48">
         <v>1063161</v>
       </c>
-      <c r="I48">
+      <c r="F48">
         <v>22787525</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>14374586</v>
       </c>
+      <c r="B49">
+        <v>7584501</v>
+      </c>
       <c r="C49">
-        <v>7584501</v>
+        <v>415668</v>
       </c>
       <c r="E49">
-        <v>415668</v>
-      </c>
-      <c r="G49">
         <v>1036044</v>
       </c>
-      <c r="I49">
+      <c r="F49">
         <v>23410799</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>13635957</v>
       </c>
+      <c r="B50">
+        <v>6599606</v>
+      </c>
       <c r="C50">
-        <v>6599606</v>
+        <v>381915</v>
       </c>
       <c r="E50">
-        <v>381915</v>
-      </c>
-      <c r="G50">
         <v>833174</v>
       </c>
-      <c r="I50">
+      <c r="F50">
         <v>21450652</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>16508905</v>
       </c>
+      <c r="B51">
+        <v>7956036</v>
+      </c>
       <c r="C51">
-        <v>7956036</v>
+        <v>441894</v>
       </c>
       <c r="E51">
-        <v>441894</v>
-      </c>
-      <c r="G51">
         <v>997444</v>
       </c>
-      <c r="I51">
+      <c r="F51">
         <v>25904279</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>17736970</v>
       </c>
+      <c r="B52">
+        <v>9070554</v>
+      </c>
       <c r="C52">
-        <v>9070554</v>
+        <v>387843</v>
       </c>
       <c r="E52">
-        <v>387843</v>
-      </c>
-      <c r="G52">
         <v>1069159</v>
       </c>
-      <c r="I52">
+      <c r="F52">
         <v>28264526</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>17286030</v>
       </c>
+      <c r="B53">
+        <v>7881193</v>
+      </c>
       <c r="C53">
-        <v>7881193</v>
+        <v>324560</v>
       </c>
       <c r="E53">
-        <v>324560</v>
-      </c>
-      <c r="G53">
         <v>886556</v>
       </c>
-      <c r="I53">
+      <c r="F53">
         <v>26378339</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>18683543</v>
       </c>
+      <c r="B54">
+        <v>8530662</v>
+      </c>
       <c r="C54">
-        <v>8530662</v>
+        <v>325154</v>
       </c>
       <c r="E54">
-        <v>325154</v>
-      </c>
-      <c r="G54">
         <v>929461</v>
       </c>
-      <c r="I54">
+      <c r="F54">
         <v>28468820</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>18989159</v>
       </c>
+      <c r="B55">
+        <v>7856637</v>
+      </c>
       <c r="C55">
-        <v>7856637</v>
+        <v>316737</v>
       </c>
       <c r="E55">
-        <v>316737</v>
-      </c>
-      <c r="G55">
         <v>882955</v>
       </c>
-      <c r="I55">
+      <c r="F55">
         <v>28045488</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>21453766</v>
       </c>
+      <c r="B56">
+        <v>9040768</v>
+      </c>
       <c r="C56">
-        <v>9040768</v>
+        <v>340353</v>
       </c>
       <c r="E56">
-        <v>340353</v>
-      </c>
-      <c r="G56">
         <v>1000060</v>
       </c>
-      <c r="I56">
+      <c r="F56">
         <v>31834947</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>22998380</v>
       </c>
+      <c r="B57">
+        <v>8836449</v>
+      </c>
       <c r="C57">
-        <v>8836449</v>
+        <v>298259</v>
       </c>
       <c r="E57">
-        <v>298259</v>
-      </c>
-      <c r="G57">
         <v>1253070</v>
       </c>
-      <c r="I57">
+      <c r="F57">
         <v>33386158</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>22459420</v>
       </c>
+      <c r="B58">
+        <v>8493109</v>
+      </c>
       <c r="C58">
-        <v>8493109</v>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1105475</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1105475</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="I58">
         <v>32058004</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>22483118</v>
       </c>
+      <c r="B59">
+        <v>8670824</v>
+      </c>
       <c r="C59">
-        <v>8670824</v>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1003335</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1003335</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59">
         <v>32157277</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>25155362</v>
       </c>
+      <c r="B60">
+        <v>9414153</v>
+      </c>
       <c r="C60">
-        <v>9414153</v>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>979457</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>979457</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60">
         <v>35548972</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>25700031</v>
       </c>
+      <c r="B61">
+        <v>9031614</v>
+      </c>
       <c r="C61">
-        <v>9031614</v>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>970940</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>970940</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="I61">
         <v>35702585</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>26682863</v>
       </c>
+      <c r="B62">
+        <v>9017749</v>
+      </c>
       <c r="C62">
-        <v>9017749</v>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>894257</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>894257</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="I62">
         <v>36594869</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>28598333</v>
       </c>
+      <c r="B63">
+        <v>9074815</v>
+      </c>
       <c r="C63">
-        <v>9074815</v>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>962918</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>962918</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="I63">
         <v>38636066</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>30219885</v>
       </c>
+      <c r="B64">
+        <v>9612815</v>
+      </c>
       <c r="C64">
-        <v>9612815</v>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1284715</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1284715</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="I64">
         <v>41117415</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>32087548</v>
       </c>
+      <c r="B65">
+        <v>9843489</v>
+      </c>
       <c r="C65">
-        <v>9843489</v>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>928586</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>928586</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="I65">
         <v>42859623</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>34006285</v>
       </c>
+      <c r="B66">
+        <v>10231163</v>
+      </c>
       <c r="C66">
-        <v>10231163</v>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>879000</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>879000</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="I66">
         <v>45116448</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>36922186</v>
       </c>
+      <c r="B67">
+        <v>10563897</v>
+      </c>
       <c r="C67">
-        <v>10563897</v>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>980362</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>980362</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="I67">
         <v>48466445</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>36993999</v>
       </c>
+      <c r="B68">
+        <v>9888133</v>
+      </c>
       <c r="C68">
-        <v>9888133</v>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>836000</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>836000</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="I68">
         <v>47718132</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>41302856</v>
       </c>
+      <c r="B69">
+        <v>10221745</v>
+      </c>
       <c r="C69">
-        <v>10221745</v>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>904751</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>904751</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="I69">
         <v>52429352</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>43699831</v>
       </c>
+      <c r="B70">
+        <v>11969000</v>
+      </c>
       <c r="C70">
-        <v>11969000</v>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>877839</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>877839</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="I70">
         <v>56546670</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>43191642</v>
       </c>
+      <c r="B71">
+        <v>11803000</v>
+      </c>
       <c r="C71">
-        <v>11803000</v>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>828000</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>828000</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="I71">
         <v>55822642</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>44148214</v>
       </c>
+      <c r="B72">
+        <v>12106000</v>
+      </c>
       <c r="C72">
-        <v>12106000</v>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>875000</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>875000</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="I72">
         <v>57129214</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>47347254</v>
       </c>
+      <c r="B73">
+        <v>12925000</v>
+      </c>
       <c r="C73">
-        <v>12925000</v>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>892000</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>892000</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="I73">
         <v>61164254</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>48898716</v>
       </c>
+      <c r="B74">
+        <v>14094000</v>
+      </c>
       <c r="C74">
-        <v>14094000</v>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>883000</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>883000</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="I74">
         <v>63875716</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>48516953</v>
       </c>
+      <c r="B75">
+        <v>13776000</v>
+      </c>
       <c r="C75">
-        <v>13776000</v>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>766000</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>766000</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="I75">
         <v>63058953</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>